--- a/qld-postcode.xlsx
+++ b/qld-postcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cicr9\Documents\postcode-search\postcode-scrab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E14C380-702F-43E4-8334-F91355014F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0228CB4-17C4-4E4A-ADB1-D079EB158AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6FAD8EA4-D46D-4939-A25E-D368FDFBDE79}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492F3596-B5AE-4112-9B16-2CACE4661AE8}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+      <selection activeCell="D2" sqref="D2:D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -439,145 +439,2437 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4108</v>
+        <v>4000</v>
       </c>
       <c r="B2">
-        <v>4108</v>
+        <v>4000</v>
       </c>
       <c r="C2">
-        <v>4108</v>
+        <v>4000</v>
       </c>
       <c r="D2">
-        <v>4108</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4110</v>
+        <v>4005</v>
       </c>
       <c r="B3">
-        <v>4110</v>
+        <v>4005</v>
       </c>
       <c r="C3">
-        <v>4110</v>
+        <v>4005</v>
       </c>
       <c r="D3">
-        <v>4110</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4510</v>
+        <v>4007</v>
       </c>
       <c r="B4">
-        <v>4510</v>
+        <v>4006</v>
       </c>
       <c r="C4">
-        <v>4510</v>
+        <v>4006</v>
       </c>
       <c r="D4">
-        <v>4510</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4871</v>
+        <v>4008</v>
       </c>
       <c r="B5">
-        <v>4871</v>
+        <v>4007</v>
       </c>
       <c r="C5">
-        <v>4820</v>
+        <v>4007</v>
       </c>
       <c r="D5">
-        <v>4807</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4895</v>
+        <v>4009</v>
       </c>
       <c r="B6">
-        <v>4895</v>
+        <v>4008</v>
       </c>
       <c r="C6">
-        <v>4871</v>
+        <v>4008</v>
       </c>
       <c r="D6">
-        <v>4809</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4010</v>
+      </c>
+      <c r="B7">
+        <v>4009</v>
+      </c>
       <c r="C7">
-        <v>4895</v>
+        <v>4009</v>
       </c>
       <c r="D7">
-        <v>4810</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4011</v>
+      </c>
+      <c r="B8">
+        <v>4010</v>
+      </c>
+      <c r="C8">
+        <v>4010</v>
+      </c>
       <c r="D8">
-        <v>4811</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4012</v>
+      </c>
+      <c r="B9">
+        <v>4011</v>
+      </c>
+      <c r="C9">
+        <v>4011</v>
+      </c>
       <c r="D9">
-        <v>4812</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4013</v>
+      </c>
+      <c r="B10">
+        <v>4012</v>
+      </c>
+      <c r="C10">
+        <v>4012</v>
+      </c>
       <c r="D10">
-        <v>4813</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4014</v>
+      </c>
+      <c r="B11">
+        <v>4013</v>
+      </c>
+      <c r="C11">
+        <v>4013</v>
+      </c>
       <c r="D11">
-        <v>4814</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4018</v>
+      </c>
+      <c r="B12">
+        <v>4014</v>
+      </c>
+      <c r="C12">
+        <v>4014</v>
+      </c>
       <c r="D12">
-        <v>4815</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4030</v>
+      </c>
+      <c r="B13">
+        <v>4017</v>
+      </c>
+      <c r="C13">
+        <v>4017</v>
+      </c>
       <c r="D13">
-        <v>4816</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4031</v>
+      </c>
+      <c r="B14">
+        <v>4018</v>
+      </c>
+      <c r="C14">
+        <v>4018</v>
+      </c>
       <c r="D14">
-        <v>4817</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4032</v>
+      </c>
+      <c r="B15">
+        <v>4019</v>
+      </c>
+      <c r="C15">
+        <v>4019</v>
+      </c>
       <c r="D15">
-        <v>4818</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4034</v>
+      </c>
+      <c r="B16">
+        <v>4020</v>
+      </c>
+      <c r="C16">
+        <v>4020</v>
+      </c>
       <c r="D16">
-        <v>4819</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4035</v>
+      </c>
+      <c r="B17">
+        <v>4021</v>
+      </c>
+      <c r="C17">
+        <v>4021</v>
+      </c>
       <c r="D17">
-        <v>4820</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4051</v>
+      </c>
+      <c r="B18">
+        <v>4022</v>
+      </c>
+      <c r="C18">
+        <v>4022</v>
+      </c>
       <c r="D18">
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4053</v>
+      </c>
+      <c r="B19">
+        <v>4030</v>
+      </c>
+      <c r="C19">
+        <v>4025</v>
+      </c>
       <c r="D19">
-        <v>4871</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4054</v>
+      </c>
+      <c r="B20">
+        <v>4031</v>
+      </c>
+      <c r="C20">
+        <v>4030</v>
+      </c>
       <c r="D20">
-        <v>4895</v>
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4055</v>
+      </c>
+      <c r="B21">
+        <v>4032</v>
+      </c>
+      <c r="C21">
+        <v>4031</v>
+      </c>
+      <c r="D21">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4059</v>
+      </c>
+      <c r="B22">
+        <v>4034</v>
+      </c>
+      <c r="C22">
+        <v>4032</v>
+      </c>
+      <c r="D22">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4060</v>
+      </c>
+      <c r="B23">
+        <v>4035</v>
+      </c>
+      <c r="C23">
+        <v>4034</v>
+      </c>
+      <c r="D23">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4061</v>
+      </c>
+      <c r="B24">
+        <v>4036</v>
+      </c>
+      <c r="C24">
+        <v>4035</v>
+      </c>
+      <c r="D24">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4064</v>
+      </c>
+      <c r="B25">
+        <v>4037</v>
+      </c>
+      <c r="C25">
+        <v>4036</v>
+      </c>
+      <c r="D25">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4065</v>
+      </c>
+      <c r="B26">
+        <v>4051</v>
+      </c>
+      <c r="C26">
+        <v>4037</v>
+      </c>
+      <c r="D26">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4066</v>
+      </c>
+      <c r="B27">
+        <v>4053</v>
+      </c>
+      <c r="C27">
+        <v>4051</v>
+      </c>
+      <c r="D27">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4067</v>
+      </c>
+      <c r="B28">
+        <v>4054</v>
+      </c>
+      <c r="C28">
+        <v>4053</v>
+      </c>
+      <c r="D28">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4068</v>
+      </c>
+      <c r="B29">
+        <v>4055</v>
+      </c>
+      <c r="C29">
+        <v>4054</v>
+      </c>
+      <c r="D29">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4069</v>
+      </c>
+      <c r="B30">
+        <v>4059</v>
+      </c>
+      <c r="C30">
+        <v>4055</v>
+      </c>
+      <c r="D30">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4070</v>
+      </c>
+      <c r="B31">
+        <v>4060</v>
+      </c>
+      <c r="C31">
+        <v>4059</v>
+      </c>
+      <c r="D31">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4073</v>
+      </c>
+      <c r="B32">
+        <v>4061</v>
+      </c>
+      <c r="C32">
+        <v>4060</v>
+      </c>
+      <c r="D32">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4074</v>
+      </c>
+      <c r="B33">
+        <v>4064</v>
+      </c>
+      <c r="C33">
+        <v>4061</v>
+      </c>
+      <c r="D33">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4075</v>
+      </c>
+      <c r="B34">
+        <v>4065</v>
+      </c>
+      <c r="C34">
+        <v>4064</v>
+      </c>
+      <c r="D34">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4076</v>
+      </c>
+      <c r="B35">
+        <v>4066</v>
+      </c>
+      <c r="C35">
+        <v>4065</v>
+      </c>
+      <c r="D35">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4077</v>
+      </c>
+      <c r="B36">
+        <v>4067</v>
+      </c>
+      <c r="C36">
+        <v>4066</v>
+      </c>
+      <c r="D36">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4078</v>
+      </c>
+      <c r="B37">
+        <v>4068</v>
+      </c>
+      <c r="C37">
+        <v>4067</v>
+      </c>
+      <c r="D37">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4101</v>
+      </c>
+      <c r="B38">
+        <v>4069</v>
+      </c>
+      <c r="C38">
+        <v>4068</v>
+      </c>
+      <c r="D38">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4102</v>
+      </c>
+      <c r="B39">
+        <v>4070</v>
+      </c>
+      <c r="C39">
+        <v>4069</v>
+      </c>
+      <c r="D39">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4103</v>
+      </c>
+      <c r="B40">
+        <v>4073</v>
+      </c>
+      <c r="C40">
+        <v>4070</v>
+      </c>
+      <c r="D40">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4104</v>
+      </c>
+      <c r="B41">
+        <v>4074</v>
+      </c>
+      <c r="C41">
+        <v>4073</v>
+      </c>
+      <c r="D41">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4105</v>
+      </c>
+      <c r="B42">
+        <v>4075</v>
+      </c>
+      <c r="C42">
+        <v>4074</v>
+      </c>
+      <c r="D42">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4106</v>
+      </c>
+      <c r="B43">
+        <v>4076</v>
+      </c>
+      <c r="C43">
+        <v>4075</v>
+      </c>
+      <c r="D43">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4107</v>
+      </c>
+      <c r="B44">
+        <v>4077</v>
+      </c>
+      <c r="C44">
+        <v>4076</v>
+      </c>
+      <c r="D44">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4108</v>
+      </c>
+      <c r="B45">
+        <v>4078</v>
+      </c>
+      <c r="C45">
+        <v>4077</v>
+      </c>
+      <c r="D45">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4109</v>
+      </c>
+      <c r="B46">
+        <v>4101</v>
+      </c>
+      <c r="C46">
+        <v>4078</v>
+      </c>
+      <c r="D46">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4110</v>
+      </c>
+      <c r="B47">
+        <v>4102</v>
+      </c>
+      <c r="C47">
+        <v>4101</v>
+      </c>
+      <c r="D47">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4111</v>
+      </c>
+      <c r="B48">
+        <v>4103</v>
+      </c>
+      <c r="C48">
+        <v>4102</v>
+      </c>
+      <c r="D48">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4112</v>
+      </c>
+      <c r="B49">
+        <v>4104</v>
+      </c>
+      <c r="C49">
+        <v>4103</v>
+      </c>
+      <c r="D49">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4113</v>
+      </c>
+      <c r="B50">
+        <v>4105</v>
+      </c>
+      <c r="C50">
+        <v>4104</v>
+      </c>
+      <c r="D50">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4114</v>
+      </c>
+      <c r="B51">
+        <v>4106</v>
+      </c>
+      <c r="C51">
+        <v>4105</v>
+      </c>
+      <c r="D51">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4115</v>
+      </c>
+      <c r="B52">
+        <v>4107</v>
+      </c>
+      <c r="C52">
+        <v>4106</v>
+      </c>
+      <c r="D52">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4116</v>
+      </c>
+      <c r="B53">
+        <v>4108</v>
+      </c>
+      <c r="C53">
+        <v>4107</v>
+      </c>
+      <c r="D53">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4117</v>
+      </c>
+      <c r="B54">
+        <v>4109</v>
+      </c>
+      <c r="C54">
+        <v>4108</v>
+      </c>
+      <c r="D54">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4118</v>
+      </c>
+      <c r="B55">
+        <v>4110</v>
+      </c>
+      <c r="C55">
+        <v>4109</v>
+      </c>
+      <c r="D55">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4119</v>
+      </c>
+      <c r="B56">
+        <v>4111</v>
+      </c>
+      <c r="C56">
+        <v>4110</v>
+      </c>
+      <c r="D56">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4120</v>
+      </c>
+      <c r="B57">
+        <v>4112</v>
+      </c>
+      <c r="C57">
+        <v>4111</v>
+      </c>
+      <c r="D57">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4121</v>
+      </c>
+      <c r="B58">
+        <v>4113</v>
+      </c>
+      <c r="C58">
+        <v>4112</v>
+      </c>
+      <c r="D58">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>4122</v>
+      </c>
+      <c r="B59">
+        <v>4114</v>
+      </c>
+      <c r="C59">
+        <v>4113</v>
+      </c>
+      <c r="D59">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4123</v>
+      </c>
+      <c r="B60">
+        <v>4115</v>
+      </c>
+      <c r="C60">
+        <v>4114</v>
+      </c>
+      <c r="D60">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>4124</v>
+      </c>
+      <c r="B61">
+        <v>4116</v>
+      </c>
+      <c r="C61">
+        <v>4115</v>
+      </c>
+      <c r="D61">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4125</v>
+      </c>
+      <c r="B62">
+        <v>4117</v>
+      </c>
+      <c r="C62">
+        <v>4116</v>
+      </c>
+      <c r="D62">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>4127</v>
+      </c>
+      <c r="B63">
+        <v>4118</v>
+      </c>
+      <c r="C63">
+        <v>4117</v>
+      </c>
+      <c r="D63">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4128</v>
+      </c>
+      <c r="B64">
+        <v>4119</v>
+      </c>
+      <c r="C64">
+        <v>4118</v>
+      </c>
+      <c r="D64">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4129</v>
+      </c>
+      <c r="B65">
+        <v>4120</v>
+      </c>
+      <c r="C65">
+        <v>4119</v>
+      </c>
+      <c r="D65">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4130</v>
+      </c>
+      <c r="B66">
+        <v>4121</v>
+      </c>
+      <c r="C66">
+        <v>4120</v>
+      </c>
+      <c r="D66">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4131</v>
+      </c>
+      <c r="B67">
+        <v>4122</v>
+      </c>
+      <c r="C67">
+        <v>4121</v>
+      </c>
+      <c r="D67">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4132</v>
+      </c>
+      <c r="B68">
+        <v>4123</v>
+      </c>
+      <c r="C68">
+        <v>4122</v>
+      </c>
+      <c r="D68">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4133</v>
+      </c>
+      <c r="B69">
+        <v>4124</v>
+      </c>
+      <c r="C69">
+        <v>4123</v>
+      </c>
+      <c r="D69">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4151</v>
+      </c>
+      <c r="B70">
+        <v>4125</v>
+      </c>
+      <c r="C70">
+        <v>4124</v>
+      </c>
+      <c r="D70">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4152</v>
+      </c>
+      <c r="B71">
+        <v>4127</v>
+      </c>
+      <c r="C71">
+        <v>4125</v>
+      </c>
+      <c r="D71">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4153</v>
+      </c>
+      <c r="B72">
+        <v>4128</v>
+      </c>
+      <c r="C72">
+        <v>4127</v>
+      </c>
+      <c r="D72">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4154</v>
+      </c>
+      <c r="B73">
+        <v>4129</v>
+      </c>
+      <c r="C73">
+        <v>4128</v>
+      </c>
+      <c r="D73">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4155</v>
+      </c>
+      <c r="B74">
+        <v>4130</v>
+      </c>
+      <c r="C74">
+        <v>4129</v>
+      </c>
+      <c r="D74">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4156</v>
+      </c>
+      <c r="B75">
+        <v>4131</v>
+      </c>
+      <c r="C75">
+        <v>4130</v>
+      </c>
+      <c r="D75">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4157</v>
+      </c>
+      <c r="B76">
+        <v>4132</v>
+      </c>
+      <c r="C76">
+        <v>4131</v>
+      </c>
+      <c r="D76">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4158</v>
+      </c>
+      <c r="B77">
+        <v>4133</v>
+      </c>
+      <c r="C77">
+        <v>4132</v>
+      </c>
+      <c r="D77">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>4159</v>
+      </c>
+      <c r="B78">
+        <v>4151</v>
+      </c>
+      <c r="C78">
+        <v>4133</v>
+      </c>
+      <c r="D78">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>4160</v>
+      </c>
+      <c r="B79">
+        <v>4152</v>
+      </c>
+      <c r="C79">
+        <v>4151</v>
+      </c>
+      <c r="D79">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4161</v>
+      </c>
+      <c r="B80">
+        <v>4153</v>
+      </c>
+      <c r="C80">
+        <v>4152</v>
+      </c>
+      <c r="D80">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4163</v>
+      </c>
+      <c r="B81">
+        <v>4154</v>
+      </c>
+      <c r="C81">
+        <v>4153</v>
+      </c>
+      <c r="D81">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4164</v>
+      </c>
+      <c r="B82">
+        <v>4155</v>
+      </c>
+      <c r="C82">
+        <v>4154</v>
+      </c>
+      <c r="D82">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4165</v>
+      </c>
+      <c r="B83">
+        <v>4156</v>
+      </c>
+      <c r="C83">
+        <v>4155</v>
+      </c>
+      <c r="D83">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4169</v>
+      </c>
+      <c r="B84">
+        <v>4157</v>
+      </c>
+      <c r="C84">
+        <v>4156</v>
+      </c>
+      <c r="D84">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4170</v>
+      </c>
+      <c r="B85">
+        <v>4158</v>
+      </c>
+      <c r="C85">
+        <v>4157</v>
+      </c>
+      <c r="D85">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4171</v>
+      </c>
+      <c r="B86">
+        <v>4159</v>
+      </c>
+      <c r="C86">
+        <v>4158</v>
+      </c>
+      <c r="D86">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>4172</v>
+      </c>
+      <c r="B87">
+        <v>4160</v>
+      </c>
+      <c r="C87">
+        <v>4159</v>
+      </c>
+      <c r="D87">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>4173</v>
+      </c>
+      <c r="B88">
+        <v>4161</v>
+      </c>
+      <c r="C88">
+        <v>4160</v>
+      </c>
+      <c r="D88">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4174</v>
+      </c>
+      <c r="B89">
+        <v>4163</v>
+      </c>
+      <c r="C89">
+        <v>4161</v>
+      </c>
+      <c r="D89">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>4178</v>
+      </c>
+      <c r="B90">
+        <v>4164</v>
+      </c>
+      <c r="C90">
+        <v>4163</v>
+      </c>
+      <c r="D90">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>4205</v>
+      </c>
+      <c r="B91">
+        <v>4165</v>
+      </c>
+      <c r="C91">
+        <v>4164</v>
+      </c>
+      <c r="D91">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>4207</v>
+      </c>
+      <c r="B92">
+        <v>4169</v>
+      </c>
+      <c r="C92">
+        <v>4165</v>
+      </c>
+      <c r="D92">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4222</v>
+      </c>
+      <c r="B93">
+        <v>4170</v>
+      </c>
+      <c r="C93">
+        <v>4169</v>
+      </c>
+      <c r="D93">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>4280</v>
+      </c>
+      <c r="B94">
+        <v>4171</v>
+      </c>
+      <c r="C94">
+        <v>4170</v>
+      </c>
+      <c r="D94">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>4285</v>
+      </c>
+      <c r="B95">
+        <v>4172</v>
+      </c>
+      <c r="C95">
+        <v>4171</v>
+      </c>
+      <c r="D95">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>4300</v>
+      </c>
+      <c r="B96">
+        <v>4173</v>
+      </c>
+      <c r="C96">
+        <v>4172</v>
+      </c>
+      <c r="D96">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4301</v>
+      </c>
+      <c r="B97">
+        <v>4174</v>
+      </c>
+      <c r="C97">
+        <v>4173</v>
+      </c>
+      <c r="D97">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>4303</v>
+      </c>
+      <c r="B98">
+        <v>4178</v>
+      </c>
+      <c r="C98">
+        <v>4174</v>
+      </c>
+      <c r="D98">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>4304</v>
+      </c>
+      <c r="B99">
+        <v>4179</v>
+      </c>
+      <c r="C99">
+        <v>4178</v>
+      </c>
+      <c r="D99">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>4305</v>
+      </c>
+      <c r="B100">
+        <v>4183</v>
+      </c>
+      <c r="C100">
+        <v>4179</v>
+      </c>
+      <c r="D100">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>4306</v>
+      </c>
+      <c r="B101">
+        <v>4184</v>
+      </c>
+      <c r="C101">
+        <v>4183</v>
+      </c>
+      <c r="D101">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>9464</v>
+      </c>
+      <c r="B102">
+        <v>4205</v>
+      </c>
+      <c r="C102">
+        <v>4184</v>
+      </c>
+      <c r="D102">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>4207</v>
+      </c>
+      <c r="C103">
+        <v>4205</v>
+      </c>
+      <c r="D103">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>4208</v>
+      </c>
+      <c r="C104">
+        <v>4207</v>
+      </c>
+      <c r="D104">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>4209</v>
+      </c>
+      <c r="C105">
+        <v>4208</v>
+      </c>
+      <c r="D105">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>4210</v>
+      </c>
+      <c r="C106">
+        <v>4209</v>
+      </c>
+      <c r="D106">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>4212</v>
+      </c>
+      <c r="C107">
+        <v>4210</v>
+      </c>
+      <c r="D107">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>4216</v>
+      </c>
+      <c r="C108">
+        <v>4211</v>
+      </c>
+      <c r="D108">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>4222</v>
+      </c>
+      <c r="C109">
+        <v>4212</v>
+      </c>
+      <c r="D109">
+        <v>4161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>4270</v>
+      </c>
+      <c r="C110">
+        <v>4213</v>
+      </c>
+      <c r="D110">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>4271</v>
+      </c>
+      <c r="C111">
+        <v>4214</v>
+      </c>
+      <c r="D111">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>4272</v>
+      </c>
+      <c r="C112">
+        <v>4215</v>
+      </c>
+      <c r="D112">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>4280</v>
+      </c>
+      <c r="C113">
+        <v>4216</v>
+      </c>
+      <c r="D113">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>4285</v>
+      </c>
+      <c r="C114">
+        <v>4217</v>
+      </c>
+      <c r="D114">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>4300</v>
+      </c>
+      <c r="C115">
+        <v>4218</v>
+      </c>
+      <c r="D115">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>4301</v>
+      </c>
+      <c r="C116">
+        <v>4219</v>
+      </c>
+      <c r="D116">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>4303</v>
+      </c>
+      <c r="C117">
+        <v>4220</v>
+      </c>
+      <c r="D117">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>4304</v>
+      </c>
+      <c r="C118">
+        <v>4221</v>
+      </c>
+      <c r="D118">
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>4305</v>
+      </c>
+      <c r="C119">
+        <v>4222</v>
+      </c>
+      <c r="D119">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>4306</v>
+      </c>
+      <c r="C120">
+        <v>4223</v>
+      </c>
+      <c r="D120">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>4346</v>
+      </c>
+      <c r="C121">
+        <v>4224</v>
+      </c>
+      <c r="D121">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>4500</v>
+      </c>
+      <c r="C122">
+        <v>4225</v>
+      </c>
+      <c r="D122">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>4501</v>
+      </c>
+      <c r="C123">
+        <v>4226</v>
+      </c>
+      <c r="D123">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>4502</v>
+      </c>
+      <c r="C124">
+        <v>4227</v>
+      </c>
+      <c r="D124">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>4503</v>
+      </c>
+      <c r="C125">
+        <v>4228</v>
+      </c>
+      <c r="D125">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>4504</v>
+      </c>
+      <c r="C126">
+        <v>4230</v>
+      </c>
+      <c r="D126">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>4508</v>
+      </c>
+      <c r="C127">
+        <v>4270</v>
+      </c>
+      <c r="D127">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>4509</v>
+      </c>
+      <c r="C128">
+        <v>4271</v>
+      </c>
+      <c r="D128">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>4520</v>
+      </c>
+      <c r="C129">
+        <v>4272</v>
+      </c>
+      <c r="D129">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>9464</v>
+      </c>
+      <c r="C130">
+        <v>4275</v>
+      </c>
+      <c r="D130">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C131">
+        <v>4280</v>
+      </c>
+      <c r="D131">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C132">
+        <v>4285</v>
+      </c>
+      <c r="D132">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C133">
+        <v>4287</v>
+      </c>
+      <c r="D133">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C134">
+        <v>4300</v>
+      </c>
+      <c r="D134">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C135">
+        <v>4301</v>
+      </c>
+      <c r="D135">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C136">
+        <v>4303</v>
+      </c>
+      <c r="D136">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C137">
+        <v>4304</v>
+      </c>
+      <c r="D137">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C138">
+        <v>4305</v>
+      </c>
+      <c r="D138">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>4306</v>
+      </c>
+      <c r="D139">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>4307</v>
+      </c>
+      <c r="D140">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>4309</v>
+      </c>
+      <c r="D141">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>4310</v>
+      </c>
+      <c r="D142">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>4311</v>
+      </c>
+      <c r="D143">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>4312</v>
+      </c>
+      <c r="D144">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>4340</v>
+      </c>
+      <c r="D145">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>4341</v>
+      </c>
+      <c r="D146">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>4342</v>
+      </c>
+      <c r="D147">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>4343</v>
+      </c>
+      <c r="D148">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C149">
+        <v>4345</v>
+      </c>
+      <c r="D149">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C150">
+        <v>4346</v>
+      </c>
+      <c r="D150">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C151">
+        <v>4500</v>
+      </c>
+      <c r="D151">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C152">
+        <v>4501</v>
+      </c>
+      <c r="D152">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C153">
+        <v>4502</v>
+      </c>
+      <c r="D153">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C154">
+        <v>4503</v>
+      </c>
+      <c r="D154">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C155">
+        <v>4504</v>
+      </c>
+      <c r="D155">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C156">
+        <v>4505</v>
+      </c>
+      <c r="D156">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C157">
+        <v>4506</v>
+      </c>
+      <c r="D157">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C158">
+        <v>4507</v>
+      </c>
+      <c r="D158">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>4508</v>
+      </c>
+      <c r="D159">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>4509</v>
+      </c>
+      <c r="D160">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>4510</v>
+      </c>
+      <c r="D161">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>4511</v>
+      </c>
+      <c r="D162">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>4512</v>
+      </c>
+      <c r="D163">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>4514</v>
+      </c>
+      <c r="D164">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C165">
+        <v>4516</v>
+      </c>
+      <c r="D165">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C166">
+        <v>4517</v>
+      </c>
+      <c r="D166">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C167">
+        <v>4518</v>
+      </c>
+      <c r="D167">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C168">
+        <v>4520</v>
+      </c>
+      <c r="D168">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C169">
+        <v>4521</v>
+      </c>
+      <c r="D169">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C170">
+        <v>9464</v>
+      </c>
+      <c r="D170">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>9726</v>
+      </c>
+      <c r="D171">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D172">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D177">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D183">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D184">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D188">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D193">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D198">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D203">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D204">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D217">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D238">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D240">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D241">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>9464</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>9726</v>
       </c>
     </row>
   </sheetData>
